--- a/Mifos Automation Excels/Client/2579-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-PATTERN-VAR-INST-PERIODIC-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2579-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-PATTERN-VAR-INST-PERIODIC-Makerepayment2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="44">
   <si>
     <t>Interest</t>
   </si>
@@ -115,40 +115,43 @@
     <t>$ 5,000</t>
   </si>
   <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>Interest Receivable(3)</t>
+  </si>
+  <si>
+    <t>Accrual</t>
+  </si>
+  <si>
+    <t>L114</t>
+  </si>
+  <si>
+    <t>L119</t>
+  </si>
+  <si>
+    <t>L117</t>
+  </si>
+  <si>
+    <t>L120</t>
+  </si>
+  <si>
+    <t>$ 51.79</t>
+  </si>
+  <si>
+    <t>$ 42.48</t>
+  </si>
+  <si>
+    <t>$ 79.43</t>
+  </si>
+  <si>
     <t>$ 900</t>
   </si>
   <si>
+    <t>$ 942.48</t>
+  </si>
+  <si>
     <t>$ 951.79</t>
-  </si>
-  <si>
-    <t>$ 51.79</t>
-  </si>
-  <si>
-    <t>$ 942.48</t>
-  </si>
-  <si>
-    <t>$ 42.48</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>Interest Receivable(3)</t>
-  </si>
-  <si>
-    <t>L88</t>
-  </si>
-  <si>
-    <t>L89</t>
-  </si>
-  <si>
-    <t>L92</t>
-  </si>
-  <si>
-    <t>Accrual</t>
-  </si>
-  <si>
-    <t>$ 79.35</t>
   </si>
 </sst>
 </file>
@@ -225,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -252,18 +255,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -272,17 +265,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,7 +617,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +669,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>3519</v>
+        <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -684,16 +678,16 @@
         <v>42095</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4">
-        <v>79.349999999999994</v>
+        <v>79.430000000000007</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>79.349999999999994</v>
+        <v>79.430000000000007</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
@@ -709,7 +703,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>3518</v>
+        <v>119</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -743,7 +737,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>3516</v>
+        <v>117</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -752,7 +746,7 @@
         <v>42065</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E4" s="4">
         <v>42.48</v>
@@ -777,7 +771,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>3514</v>
+        <v>115</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
@@ -811,7 +805,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>3515</v>
+        <v>116</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -820,7 +814,7 @@
         <v>42037</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E6" s="4">
         <v>51.79</v>
@@ -845,7 +839,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>3513</v>
+        <v>114</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -879,7 +873,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>3512</v>
+        <v>113</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
@@ -919,115 +913,6 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>151</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="13">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>154</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="13">
-        <v>42005</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -1082,8 +967,8 @@
       <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5">
-        <v>42050</v>
+      <c r="C2" s="12">
+        <v>42005</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>21</v>
@@ -1094,79 +979,52 @@
       <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="H2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5">
-        <v>42050</v>
+      <c r="C3" s="12">
+        <v>42005</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>154</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5">
-        <v>42050</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="17" t="s">
+      <c r="G3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="20"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,6 +1070,142 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>221</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
+        <v>42037</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>222</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>42037</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>223</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>42037</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>151</v>
       </c>
@@ -1275,7 +1269,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1280,7 @@
     <col min="4" max="4" width="14.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="9"/>
@@ -1322,85 +1316,85 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>151</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="12">
-        <v>42064</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="A2" s="18">
+        <v>234</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="19">
+        <v>42065</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>235</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="19">
+        <v>42065</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>152</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="12">
-        <v>42064</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>236</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="19">
+        <v>42065</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>154</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12">
-        <v>42064</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="16"/>
+      <c r="H4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1412,54 +1406,54 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="7.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -1468,24 +1462,25 @@
         <v>42037</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -1494,19 +1489,20 @@
         <v>42037</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>33</v>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1517,12 +1513,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
@@ -1531,25 +1527,25 @@
         <v>42065</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -1558,36 +1554,36 @@
         <v>42065</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25" t="s">
-        <v>35</v>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
@@ -1596,7 +1592,7 @@
         <v>42095</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>15</v>
@@ -1605,16 +1601,16 @@
         <v>14</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="25"/>
+        <v>32</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>6</v>
@@ -1623,7 +1619,7 @@
         <v>42095</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>19</v>
@@ -1634,9 +1630,9 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25" t="s">
-        <v>42</v>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
